--- a/2. Stats Essentials/5.Lending Club Case Study/Data_Dictionary.xlsx
+++ b/2. Stats Essentials/5.Lending Club Case Study/Data_Dictionary.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohit/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demon/Documents/upgrad/ai-ml/2. Stats Essentials/5.Lending Club Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD658E51-9A03-A948-8E5D-5B953BC1E3D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
     <sheet name="RejectStats" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -774,13 +785,64 @@
   </si>
   <si>
     <t>total_bc_limit</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>issue_month</t>
+  </si>
+  <si>
+    <t>issue_year</t>
+  </si>
+  <si>
+    <t>loan_amt_income_ratio</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Continous</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>Univariate</t>
+  </si>
+  <si>
+    <t>Multivariate</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,6 +998,20 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1362,7 +1438,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1394,6 +1470,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,7 +1603,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1818,15 +1905,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,7 +1950,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1968,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +2031,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>165</v>
       </c>
@@ -1953,7 +2040,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -1962,7 +2049,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1980,7 +2067,7 @@
       </c>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2007,7 +2094,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2103,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2112,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>154</v>
       </c>
@@ -2034,7 +2121,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2043,7 +2130,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2139,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2148,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2157,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2079,7 +2166,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2175,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2220,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2142,7 +2229,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2238,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +2247,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2258,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2180,7 +2267,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2189,7 +2276,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2207,7 +2294,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2225,7 +2312,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2330,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2306,7 +2393,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2324,7 +2411,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2378,7 +2465,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2502,7 +2589,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -2558,7 +2645,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -2566,7 +2653,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -2590,7 +2677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>123</v>
       </c>
@@ -2598,7 +2685,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -2614,7 +2701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
@@ -2622,7 +2709,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -2630,7 +2717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>164</v>
       </c>
@@ -2638,7 +2725,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -2654,7 +2741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -2670,7 +2757,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -2678,7 +2765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>19</v>
       </c>
@@ -2710,7 +2797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -2758,7 +2845,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
@@ -2766,7 +2853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -2774,7 +2861,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -2782,7 +2869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -2790,7 +2877,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -2806,7 +2893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
@@ -2814,7 +2901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>232</v>
       </c>
@@ -2838,18 +2925,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B118" s="13" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57">
-    <sortState ref="A2:B116">
+  <autoFilter ref="A1:B57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B116">
       <sortCondition ref="A1:A116"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:B101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2858,11 +2945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2895,7 +2982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>169</v>
       </c>
@@ -2911,7 +2998,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>170</v>
       </c>
@@ -2943,7 +3030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>173</v>
       </c>
@@ -2960,8 +3047,785 @@
       <c r="B12" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10"/>
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752CC6AD-1F00-B244-81E6-F691311E0DF4}">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.1640625" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="24" t="str">
+        <f>VLOOKUP(A2,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f>VLOOKUP(A3,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>post charge off collection fee</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>VLOOKUP(A4,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f>VLOOKUP(A5,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="24" t="e">
+        <f>VLOOKUP(A6,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="24" t="str">
+        <f>VLOOKUP(A7,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The total amount committed to that loan at that point in time.</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f>VLOOKUP(A8,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="24" t="str">
+        <f>VLOOKUP(A9,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f>VLOOKUP(A10,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>VLOOKUP(A11,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Interest Rate on the loan</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="24" t="str">
+        <f>VLOOKUP(A12,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Last total payment amount received</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f>VLOOKUP(A13,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="24" t="e">
+        <f>VLOOKUP(A14,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f>VLOOKUP(A15,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The number of months since the borrower's last delinquency.</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="24" t="str">
+        <f>VLOOKUP(A16,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The number of open credit lines in the borrower's credit file.</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="24" t="str">
+        <f>VLOOKUP(A17,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Remaining outstanding principal for total amount funded</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="24" t="str">
+        <f>VLOOKUP(A18,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="24" t="str">
+        <f>VLOOKUP(A19,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Number of derogatory public records</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="24" t="str">
+        <f>VLOOKUP(A20,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Number of public record bankruptcies</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="24" t="str">
+        <f>VLOOKUP(A21,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>post charge off gross recovery</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="24" t="str">
+        <f>VLOOKUP(A22,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Total credit revolving balance</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="24" t="str">
+        <f>VLOOKUP(A23,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="24" t="str">
+        <f>VLOOKUP(A24,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="24" t="str">
+        <f>VLOOKUP(A25,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Payments received to date for total amount funded</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="24" t="str">
+        <f>VLOOKUP(A26,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Payments received to date for portion of total amount funded by investors</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="24" t="str">
+        <f>VLOOKUP(A27,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Interest received to date</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="24" t="str">
+        <f>VLOOKUP(A28,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Late fees received to date</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="24" t="str">
+        <f>VLOOKUP(A29,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Principal received to date</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="24" t="str">
+        <f>VLOOKUP(A30,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The state provided by the borrower in the loan application</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="24" t="str">
+        <f>VLOOKUP(A31,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The month the borrower's earliest reported credit line was opened</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="24" t="str">
+        <f>VLOOKUP(A32,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="24" t="str">
+        <f>VLOOKUP(A33,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>LC assigned loan grade</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="24" t="str">
+        <f>VLOOKUP(A34,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The home ownership status provided by the borrower during registration. Our values are: RENT, OWN, MORTGAGE, OTHER.</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="24" t="str">
+        <f>VLOOKUP(A35,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The month which the loan was funded</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="24" t="e">
+        <f>VLOOKUP(A36,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="24" t="e">
+        <f>VLOOKUP(A37,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="24" t="str">
+        <f>VLOOKUP(A38,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The most recent month LC pulled credit for this loan</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="24" t="str">
+        <f>VLOOKUP(A39,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Last month payment was received</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="24" t="str">
+        <f>VLOOKUP(A40,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Current status of the loan</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="24" t="str">
+        <f>VLOOKUP(A41,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="24" t="str">
+        <f>VLOOKUP(A42,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>LC assigned loan subgrade</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="24" t="str">
+        <f>VLOOKUP(A43,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="24" t="str">
+        <f>VLOOKUP(A44,LoanStats!A$1:B$116,2,FALSE)</f>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+    <sortCondition descending="1" ref="C2:C44"/>
+    <sortCondition ref="A2:A44"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2. Stats Essentials/5.Lending Club Case Study/Data_Dictionary.xlsx
+++ b/2. Stats Essentials/5.Lending Club Case Study/Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demon/Documents/upgrad/ai-ml/2. Stats Essentials/5.Lending Club Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD658E51-9A03-A948-8E5D-5B953BC1E3D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCAFEF2-28D5-344A-BDF5-05A11EA18FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RejectStats!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1911,9 +1912,9 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3055,10 +3056,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752CC6AD-1F00-B244-81E6-F691311E0DF4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3089,7 +3091,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>165</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>253</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>2</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>252</v>
       </c>
@@ -3320,7 +3322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>27</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
@@ -3356,7 +3358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>35</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>Remaining outstanding principal for total amount funded</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>36</v>
       </c>
@@ -3386,7 +3388,7 @@
         <v>Remaining outstanding principal for portion of total amount funded by investors</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>30</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>Number of derogatory public records</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>97</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>Number of public record bankruptcies</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>164</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>post charge off gross recovery</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>Total credit revolving balance</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>32</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>The total number of credit lines currently in the borrower's credit file</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>Payments received to date for total amount funded</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>Payments received to date for portion of total amount funded by investors</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>40</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>Interest received to date</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>41</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>Late fees received to date</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>13</v>
       </c>
@@ -3659,7 +3661,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>250</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>45</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>42</v>
       </c>
@@ -3822,6 +3824,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F44" xr:uid="{E34F0BF3-A1C7-EB45-AD37-68819B690DA2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Categorical"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
     <sortCondition descending="1" ref="C2:C44"/>
     <sortCondition ref="A2:A44"/>

--- a/2. Stats Essentials/5.Lending Club Case Study/Data_Dictionary.xlsx
+++ b/2. Stats Essentials/5.Lending Club Case Study/Data_Dictionary.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demon/Documents/upgrad/ai-ml/2. Stats Essentials/5.Lending Club Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCAFEF2-28D5-344A-BDF5-05A11EA18FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07F147-40CC-2042-B96B-7979393898D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
     <sheet name="RejectStats" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RejectStats!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$E$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -806,9 +807,6 @@
     <t>loan_amt_income_ratio</t>
   </si>
   <si>
-    <t>frequency</t>
-  </si>
-  <si>
     <t>Columns</t>
   </si>
   <si>
@@ -827,23 +825,89 @@
     <t>Column Description</t>
   </si>
   <si>
-    <t>Univariate</t>
-  </si>
-  <si>
-    <t>Multivariate</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>tgt_var</t>
+  </si>
+  <si>
+    <t>Column Behaviour</t>
+  </si>
+  <si>
+    <t>Loan Characteristics</t>
+  </si>
+  <si>
+    <t>Applicant Detail</t>
+  </si>
+  <si>
+    <t>Applicant Loan Behavior</t>
+  </si>
+  <si>
+    <t>Loan Amount</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>Emp Length</t>
+  </si>
+  <si>
+    <t>Annual Income</t>
+  </si>
+  <si>
+    <t>DTI</t>
+  </si>
+  <si>
+    <t>Open Account</t>
+  </si>
+  <si>
+    <t>Public Rec</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Subgrade</t>
+  </si>
+  <si>
+    <t>Homeownership</t>
+  </si>
+  <si>
+    <t>Verification Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose </t>
+  </si>
+  <si>
+    <t>Address State</t>
+  </si>
+  <si>
+    <t>Issue Month</t>
+  </si>
+  <si>
+    <t>Issue Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Target Variable</t>
+  </si>
+  <si>
+    <t>Issue Month, Purpose, Tgt Variable</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>Income, Loan Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1080,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1439,7 +1510,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1484,6 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1912,8 +1984,8 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3057,10 +3129,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752CC6AD-1F00-B244-81E6-F691311E0DF4}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3069,571 +3141,610 @@
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="D1" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>12</v>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>257</v>
+      <c r="C2" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="24" t="str">
         <f>VLOOKUP(A2,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The self-reported annual income provided by the borrower during registration.</v>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>165</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>257</v>
+      <c r="C3" t="s">
+        <v>256</v>
       </c>
       <c r="D3" s="24" t="str">
         <f>VLOOKUP(A3,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>post charge off collection fee</v>
+        <v>Interest Rate on the loan</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>22</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
       </c>
       <c r="D4" s="24" t="str">
         <f>VLOOKUP(A4,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>21</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>257</v>
+      <c r="C5" t="s">
+        <v>256</v>
       </c>
       <c r="D5" s="24" t="str">
         <f>VLOOKUP(A5,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
       </c>
       <c r="E5" s="21" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>253</v>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="24" t="e">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="24" t="str">
         <f>VLOOKUP(A6,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>3</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP(A7,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The total amount committed to that loan at that point in time.</v>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>4</v>
+      <c r="A8" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>257</v>
+      <c r="C8" t="s">
+        <v>256</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP(A8,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The total amount committed by investors for that loan at that point in time.</v>
+        <v>The number of months since the borrower's last delinquency.</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>26</v>
+      <c r="A9" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
       </c>
       <c r="D9" s="24" t="str">
         <f>VLOOKUP(A9,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>7</v>
+      <c r="A10" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>257</v>
+      <c r="C10" t="s">
+        <v>256</v>
       </c>
       <c r="D10" s="24" t="str">
         <f>VLOOKUP(A10,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The monthly payment owed by the borrower if the loan originates.</v>
+        <v>Remaining outstanding principal for total amount funded</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>6</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>257</v>
+      <c r="C11" t="s">
+        <v>256</v>
       </c>
       <c r="D11" s="24" t="str">
         <f>VLOOKUP(A11,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Interest Rate on the loan</v>
+        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>43</v>
+      <c r="A12" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>257</v>
+      <c r="C12" t="s">
+        <v>256</v>
       </c>
       <c r="D12" s="24" t="str">
         <f>VLOOKUP(A12,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Last total payment amount received</v>
+        <v>Payments received to date for total amount funded</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>2</v>
+    <row r="13" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
+        <v>256</v>
       </c>
       <c r="D13" s="24" t="str">
         <f>VLOOKUP(A13,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+        <v>Payments received to date for portion of total amount funded by investors</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>252</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="24" t="e">
+      <c r="C14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="24" t="str">
         <f>VLOOKUP(A14,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Principal received to date</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>27</v>
+      <c r="A15" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>257</v>
+      <c r="C15" t="s">
+        <v>256</v>
       </c>
       <c r="D15" s="24" t="str">
         <f>VLOOKUP(A15,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The number of months since the borrower's last delinquency.</v>
+        <v>Interest received to date</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>29</v>
+      <c r="A16" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C16" t="s">
+        <v>256</v>
       </c>
       <c r="D16" s="24" t="str">
         <f>VLOOKUP(A16,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The number of open credit lines in the borrower's credit file.</v>
+        <v>Late fees received to date</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>35</v>
+      <c r="A17" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>257</v>
+      <c r="C17" t="s">
+        <v>256</v>
       </c>
       <c r="D17" s="24" t="str">
         <f>VLOOKUP(A17,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Remaining outstanding principal for total amount funded</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>36</v>
+        <v>post charge off gross recovery</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>257</v>
+      <c r="C18" t="s">
+        <v>256</v>
       </c>
       <c r="D18" s="24" t="str">
         <f>VLOOKUP(A18,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
+        <v>post charge off collection fee</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>30</v>
+      <c r="A19" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C19" t="s">
+        <v>256</v>
       </c>
       <c r="D19" s="24" t="str">
         <f>VLOOKUP(A19,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Number of derogatory public records</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+        <v>Last total payment amount received</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>257</v>
+      <c r="C20" t="s">
+        <v>256</v>
       </c>
       <c r="D20" s="24" t="str">
         <f>VLOOKUP(A20,LoanStats!A$1:B$116,2,FALSE)</f>
         <v>Number of public record bankruptcies</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>164</v>
+      <c r="E20" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="24" t="str">
+      <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="24" t="e">
         <f>VLOOKUP(A21,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>post charge off gross recovery</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>31</v>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>257</v>
+      <c r="C22" t="s">
+        <v>256</v>
       </c>
       <c r="D22" s="24" t="str">
         <f>VLOOKUP(A22,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Total credit revolving balance</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>32</v>
+        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>3</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
+        <v>256</v>
       </c>
       <c r="D23" s="24" t="str">
         <f>VLOOKUP(A23,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>33</v>
+        <v>The total amount committed to that loan at that point in time.</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>257</v>
+      <c r="C24" t="s">
+        <v>256</v>
       </c>
       <c r="D24" s="24" t="str">
         <f>VLOOKUP(A24,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The total number of credit lines currently in the borrower's credit file</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>37</v>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
       </c>
       <c r="D25" s="24" t="str">
         <f>VLOOKUP(A25,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Payments received to date for total amount funded</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>38</v>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
       </c>
       <c r="D26" s="24" t="str">
         <f>VLOOKUP(A26,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Payments received to date for portion of total amount funded by investors</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>40</v>
+        <v>The number of open credit lines in the borrower's credit file.</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
       </c>
       <c r="D27" s="24" t="str">
         <f>VLOOKUP(A27,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Interest received to date</v>
+        <v>Number of derogatory public records</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>41</v>
+      <c r="A28" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
+        <v>256</v>
       </c>
       <c r="D28" s="24" t="str">
         <f>VLOOKUP(A28,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Late fees received to date</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
+        <v>Total credit revolving balance</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
       </c>
       <c r="D29" s="24" t="str">
         <f>VLOOKUP(A29,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Principal received to date</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>20</v>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>259</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="24" t="str">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="24" t="e">
         <f>VLOOKUP(A30,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The state provided by the borrower in the loan application</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>23</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>258</v>
+      <c r="C31" t="s">
+        <v>257</v>
       </c>
       <c r="D31" s="24" t="str">
         <f>VLOOKUP(A31,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The month the borrower's earliest reported credit line was opened</v>
+        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>10</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>258</v>
+      <c r="C32" t="s">
+        <v>257</v>
       </c>
       <c r="D32" s="24" t="str">
         <f>VLOOKUP(A32,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
+        <v>LC assigned loan grade</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>8</v>
+      <c r="A33" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>258</v>
+      <c r="C33" t="s">
+        <v>257</v>
       </c>
       <c r="D33" s="24" t="str">
         <f>VLOOKUP(A33,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>LC assigned loan grade</v>
+        <v>LC assigned loan subgrade</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>258</v>
+      <c r="C34" t="s">
+        <v>257</v>
       </c>
       <c r="D34" s="24" t="str">
         <f>VLOOKUP(A34,LoanStats!A$1:B$116,2,FALSE)</f>
@@ -3643,203 +3754,565 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>13</v>
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>258</v>
+      <c r="C35" t="s">
+        <v>257</v>
       </c>
       <c r="D35" s="24" t="str">
         <f>VLOOKUP(A35,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The month which the loan was funded</v>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>250</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="24" t="e">
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="24" t="str">
         <f>VLOOKUP(A36,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Current status of the loan</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="24" t="e">
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="24" t="str">
         <f>VLOOKUP(A37,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>45</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>258</v>
+      <c r="C38" t="s">
+        <v>257</v>
       </c>
       <c r="D38" s="24" t="str">
         <f>VLOOKUP(A38,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The most recent month LC pulled credit for this loan</v>
+        <v>The state provided by the borrower in the loan application</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>42</v>
+      <c r="A39" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>258</v>
+      <c r="C39" t="s">
+        <v>257</v>
       </c>
       <c r="D39" s="24" t="str">
         <f>VLOOKUP(A39,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Last month payment was received</v>
+        <v>The month the borrower's earliest reported credit line was opened</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>14</v>
+    <row r="40" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>258</v>
+      <c r="C40" t="s">
+        <v>257</v>
       </c>
       <c r="D40" s="24" t="str">
         <f>VLOOKUP(A40,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Current status of the loan</v>
+        <v>Last month payment was received</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>18</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>258</v>
+      <c r="C41" t="s">
+        <v>257</v>
       </c>
       <c r="D41" s="24" t="str">
         <f>VLOOKUP(A41,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
+        <v>The most recent month LC pulled credit for this loan</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>9</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="24" t="str">
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="24" t="e">
         <f>VLOOKUP(A42,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>LC assigned loan subgrade</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>5</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="24" t="str">
+      <c r="C43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="24" t="e">
         <f>VLOOKUP(A43,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D44" s="24" t="str">
-        <f>VLOOKUP(A44,LoanStats!A$1:B$116,2,FALSE)</f>
-        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>262</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F44" xr:uid="{E34F0BF3-A1C7-EB45-AD37-68819B690DA2}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Categorical"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:E43" xr:uid="{9CB092D3-752B-2047-87F0-85E0223E6C15}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Y"/>
+        <filter val="Applicant Detail"/>
+        <filter val="Loan Characteristics"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition descending="1" ref="C2:C44"/>
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+    <sortCondition ref="B1:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA90F955-6E27-1149-8F7D-8B17781BD800}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT(C1," ",D1," .",A1," ", E1," ",B1)</f>
+        <v>#### 3 .Loan Amount vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F17" si="0">_xlfn.CONCAT(C2," ",D2," .",A2," ", E2," ",B2)</f>
+        <v>#### 4 .Interest rate vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 5 .Emp Length vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 6 .Annual Income vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 7 .DTI vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 8 .Open Account vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 9 .Public Rec vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 10 . vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 11 .Term vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 12 .Grade vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 13 .Subgrade vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 14 .Homeownership vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 15 .Verification Status vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 16 .Purpose  vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 17 .Address State vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 18 .Issue Month vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>#### 19 .Issue Year vs     Target Variable</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>